--- a/outputs/SORs/SOR Testing_Corp Information Technology.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Information Technology.xlsx
@@ -11,67 +11,68 @@
     <sheet name="Betzdorf Germany" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Black River Falls Wisconsin" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Bowling Green Ohio" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Cambridge Maryland" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Cassville Missouri" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Chambersburg Pennsylvania" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Changzhou Epc China" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Chicago Lasalle Illinois" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Ciserano Italy" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Columbia City Indiana" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Correggio Italy" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="El Paso Texas" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Faridabad India" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Florence Kentucky" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Gainsborough - Epc" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Grafton Wisconsin" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Guadalajara Mexico" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Haan Germany" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Hyderabad India" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Indianapolis Indiana" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Juarez Casa I" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Juarez Casa SS" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Juarez Holdings Ss Mexico" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Juarez Mej SS" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Khed Taluka India" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Main St Radford Virginia" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Manila Philippines" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Cassville Missouri" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Chambersburg Pennsylvania" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Changzhou Epc China" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Chicago Lasalle Illinois" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Ciserano Italy" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Columbia City Indiana" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Correggio Italy" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="El Paso Texas" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Faridabad India" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Florence Kentucky" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Gainsborough - Epc" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Grafton Wisconsin" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Guadalajara Mexico" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Haan Germany" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Hyderabad India" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Indianapolis Indiana" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Juarez Casa I" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Juarez Casa SS" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Juarez Holdings Ss Mexico" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Juarez Mej SS" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Khed Taluka India" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Main St Radford Virginia" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Manila Philippines" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Milwaukee Wisconsin" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="Mississauga Canada" sheetId="31" state="visible" r:id="rId31"/>
     <sheet name="Morehead Kentucky" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="New Hartford Connecticut" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="Pharr Texas" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="Piedras Negras Fasco Mexico" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Piedras Negras Jakel Mexico" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Reynosa Mexico" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="Reynosa Mexico - Ftw" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Rock Road Radford Virginia" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="Rosemont Illinois" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="Shanghai China" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Simi Valley California" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="South Beloit Gardner St Illino" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="St Barthelemy D'Anjou France" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Suzhou China" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="Syracuse New York" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Tipp City Ohio" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Unna Germany" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Valparaiso Indiana" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="Warren Michigan" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="Yueyang China" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="Zizurkil Spain" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="Fort Wayne Indiana" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="Marengo Illinois" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="Cleveland Ohio" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="Monterrey Rbm Mexico" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="West Chester Pennsylvania" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="Wood Dale Illinois" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="Monticello Indiana" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="Union Grove Wisconsin" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="Pharr Texas" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Piedras Negras Fasco Mexico" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Piedras Negras Jakel Mexico" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Reynosa Mexico" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Reynosa Mexico - Ftw" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Rock Road Radford Virginia" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Rosemont Illinois" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Shanghai China" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="South Beloit Gardner St Illino" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="St Barthelemy D'Anjou France" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Suzhou China" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Syracuse New York" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Tipp City Ohio" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Unna Germany" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Valparaiso Indiana" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Yueyang China" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Zizurkil Spain" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Fort Wayne Indiana" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Marengo Illinois" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="Monterrey Rbm Mexico" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="Cleveland Ohio" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="West Chester Pennsylvania" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="Wood Dale Illinois" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="Cambridge Maryland" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="New Hartford Connecticut" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="Simi Valley California" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="Warren Michigan" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="Monticello Indiana" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="Union Grove Wisconsin" sheetId="61" state="visible" r:id="rId61"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -85,7 +86,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -175,9 +176,6 @@
     <t xml:space="preserve">Bowling Green Ohio</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambridge Maryland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cassville Missouri</t>
   </si>
   <si>
@@ -256,13 +254,13 @@
     <t xml:space="preserve">Milwaukee Pmc Hq Wisconsin</t>
   </si>
   <si>
+    <t xml:space="preserve">Milwaukee Wisconsin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mississauga Canada</t>
   </si>
   <si>
     <t xml:space="preserve">Morehead Kentucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Hartford Connecticut</t>
   </si>
   <si>
     <t xml:space="preserve">Pharr Texas</t>
@@ -289,9 +287,6 @@
     <t xml:space="preserve">Shanghai China</t>
   </si>
   <si>
-    <t xml:space="preserve">Simi Valley California</t>
-  </si>
-  <si>
     <t xml:space="preserve">South Beloit Gardner St Illinois</t>
   </si>
   <si>
@@ -313,9 +308,6 @@
     <t xml:space="preserve">Valparaiso Indiana</t>
   </si>
   <si>
-    <t xml:space="preserve">Warren Michigan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yueyang China</t>
   </si>
   <si>
@@ -328,16 +320,28 @@
     <t xml:space="preserve">Marengo Illinois</t>
   </si>
   <si>
-    <t xml:space="preserve">Cleveland Ohio</t>
+    <t xml:space="preserve">Monterrey Rbm Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey Rbm Mexico</t>
+    <t xml:space="preserve">Cleveland Ohio</t>
   </si>
   <si>
     <t xml:space="preserve">West Chester Pennsylvania</t>
   </si>
   <si>
     <t xml:space="preserve">Wood Dale Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge Maryland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Hartford Connecticut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simi Valley California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warren Michigan</t>
   </si>
   <si>
     <t xml:space="preserve">Monticello Indiana</t>
@@ -350,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="60">
+  <numFmts count="61">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -411,6 +415,7 @@
     <numFmt numFmtId="222" formatCode="0.0%"/>
     <numFmt numFmtId="223" formatCode="0.0%"/>
     <numFmt numFmtId="224" formatCode="0.0%"/>
+    <numFmt numFmtId="225" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -446,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -508,6 +513,7 @@
     <xf numFmtId="222" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="223" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="224" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="225" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,7 +1190,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1255,7 +1261,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1326,7 +1332,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1335,52 +1341,164 @@
         <v>0</v>
       </c>
       <c r="H4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="I4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="n">
-        <v>0.5882</v>
-      </c>
-      <c r="K4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M4" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N4" s="10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O4" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P4" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Q4" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R4" s="10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S4" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T4" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="U4" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V4" s="10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W4" s="10" t="n">
-        <v>1</v>
+      <c r="H6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="10" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1594,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1547,7 +1665,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1618,7 +1736,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1679,118 +1797,6 @@
       </c>
       <c r="W4" s="11" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="11" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2389,6 +2395,116 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2687,116 +2803,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="14" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2929,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="15" t="n">
-        <v>0</v>
+        <v>0.0909</v>
       </c>
       <c r="Q2" s="15" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="15" t="n">
-        <v>0</v>
+        <v>0.0885</v>
       </c>
       <c r="S2" s="15" t="n">
         <v>0</v>
@@ -2950,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="15" t="n">
-        <v>0</v>
+        <v>0.0862</v>
       </c>
     </row>
     <row r="3">
@@ -3000,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="15" t="n">
-        <v>0</v>
+        <v>0.08181</v>
       </c>
       <c r="Q3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="15" t="n">
-        <v>0</v>
+        <v>0.07965</v>
       </c>
       <c r="S3" s="15" t="n">
         <v>0</v>
@@ -3021,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="15" t="n">
-        <v>0</v>
+        <v>0.07758</v>
       </c>
     </row>
     <row r="4">
@@ -3227,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="16" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="16" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="16" t="n">
-        <v>0.0885</v>
+        <v>0</v>
       </c>
       <c r="S2" s="16" t="n">
         <v>0</v>
@@ -3248,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="16" t="n">
-        <v>0.0862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3298,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="16" t="n">
-        <v>0.08181</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="16" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="16" t="n">
-        <v>0.07965</v>
+        <v>0</v>
       </c>
       <c r="S3" s="16" t="n">
         <v>0</v>
@@ -3319,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="16" t="n">
-        <v>0.07758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3498,55 +3504,55 @@
         <v>27</v>
       </c>
       <c r="G2" s="17" t="n">
-        <v>0</v>
+        <v>0.0098</v>
       </c>
       <c r="H2" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="17" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="J2" s="17" t="n">
-        <v>0</v>
+        <v>0.0293</v>
       </c>
       <c r="K2" s="17" t="n">
-        <v>0</v>
+        <v>0.0097</v>
       </c>
       <c r="L2" s="17" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="M2" s="17" t="n">
-        <v>0</v>
+        <v>0.0095</v>
       </c>
       <c r="N2" s="17" t="n">
-        <v>0</v>
+        <v>0.0381</v>
       </c>
       <c r="O2" s="17" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="17" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="Q2" s="17" t="n">
-        <v>0</v>
+        <v>0.0095</v>
       </c>
       <c r="R2" s="17" t="n">
-        <v>0</v>
+        <v>0.0285</v>
       </c>
       <c r="S2" s="17" t="n">
-        <v>0</v>
+        <v>0.0392</v>
       </c>
       <c r="T2" s="17" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U2" s="17" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V2" s="17" t="n">
-        <v>0</v>
+        <v>0.0794</v>
       </c>
       <c r="W2" s="17" t="n">
-        <v>0</v>
+        <v>0.1742</v>
       </c>
     </row>
     <row r="3">
@@ -3569,55 +3575,55 @@
         <v>28</v>
       </c>
       <c r="G3" s="17" t="n">
-        <v>0</v>
+        <v>0.00882</v>
       </c>
       <c r="H3" s="17" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="17" t="n">
-        <v>0</v>
+        <v>0.01764</v>
       </c>
       <c r="J3" s="17" t="n">
-        <v>0</v>
+        <v>0.02637</v>
       </c>
       <c r="K3" s="17" t="n">
-        <v>0</v>
+        <v>0.00873</v>
       </c>
       <c r="L3" s="17" t="n">
-        <v>0</v>
+        <v>0.01683</v>
       </c>
       <c r="M3" s="17" t="n">
-        <v>0</v>
+        <v>0.00855</v>
       </c>
       <c r="N3" s="17" t="n">
-        <v>0</v>
+        <v>0.03429</v>
       </c>
       <c r="O3" s="17" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="17" t="n">
-        <v>0</v>
+        <v>0.0171</v>
       </c>
       <c r="Q3" s="17" t="n">
-        <v>0</v>
+        <v>0.00855</v>
       </c>
       <c r="R3" s="17" t="n">
-        <v>0</v>
+        <v>0.02565</v>
       </c>
       <c r="S3" s="17" t="n">
-        <v>0</v>
+        <v>0.03528</v>
       </c>
       <c r="T3" s="17" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="U3" s="17" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="V3" s="17" t="n">
-        <v>0</v>
+        <v>0.07146</v>
       </c>
       <c r="W3" s="17" t="n">
-        <v>0</v>
+        <v>0.15678</v>
       </c>
     </row>
     <row r="4">
@@ -3643,16 +3649,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="17" t="n">
-        <v>0</v>
+        <v>0.0317</v>
       </c>
       <c r="I4" s="17" t="n">
-        <v>0</v>
+        <v>0.0083</v>
       </c>
       <c r="J4" s="17" t="n">
-        <v>0</v>
+        <v>0.0402</v>
       </c>
       <c r="K4" s="17" t="n">
-        <v>0</v>
+        <v>0.0167</v>
       </c>
       <c r="L4" s="17" t="n">
         <v>0</v>
@@ -3688,6 +3694,404 @@
         <v>0</v>
       </c>
       <c r="W4" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="17" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W7" s="17" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="17" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="S8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="17" t="n">
+        <v>1.1765</v>
+      </c>
+      <c r="W8" s="17" t="n">
+        <v>2.6316</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17" t="n">
+        <v>0.60003</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="17" t="n">
+        <v>0.60003</v>
+      </c>
+      <c r="S9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="17" t="n">
+        <v>1.05885</v>
+      </c>
+      <c r="W9" s="17" t="n">
+        <v>2.36844</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3784,7 +4188,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -3796,55 +4200,55 @@
         <v>27</v>
       </c>
       <c r="G2" s="18" t="n">
-        <v>0.0083</v>
+        <v>0</v>
       </c>
       <c r="H2" s="18" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="18" t="n">
-        <v>0.0164</v>
+        <v>0</v>
       </c>
       <c r="J2" s="18" t="n">
-        <v>0.0247</v>
+        <v>0</v>
       </c>
       <c r="K2" s="18" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="L2" s="18" t="n">
-        <v>0.0155</v>
+        <v>0</v>
       </c>
       <c r="M2" s="18" t="n">
-        <v>0.0078</v>
+        <v>0</v>
       </c>
       <c r="N2" s="18" t="n">
-        <v>0.0314</v>
+        <v>0</v>
       </c>
       <c r="O2" s="18" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="18" t="n">
-        <v>0.0155</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="18" t="n">
-        <v>0.0077</v>
+        <v>0</v>
       </c>
       <c r="R2" s="18" t="n">
-        <v>0.0231</v>
+        <v>0</v>
       </c>
       <c r="S2" s="18" t="n">
-        <v>0.0312</v>
+        <v>0</v>
       </c>
       <c r="T2" s="18" t="n">
-        <v>0.0157</v>
+        <v>0</v>
       </c>
       <c r="U2" s="18" t="n">
-        <v>0.0157</v>
+        <v>0</v>
       </c>
       <c r="V2" s="18" t="n">
-        <v>0.0628</v>
+        <v>0</v>
       </c>
       <c r="W2" s="18" t="n">
-        <v>0.1423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3855,7 +4259,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -3867,55 +4271,55 @@
         <v>28</v>
       </c>
       <c r="G3" s="18" t="n">
-        <v>0.00747</v>
+        <v>0</v>
       </c>
       <c r="H3" s="18" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="18" t="n">
-        <v>0.01476</v>
+        <v>0</v>
       </c>
       <c r="J3" s="18" t="n">
-        <v>0.02223</v>
+        <v>0</v>
       </c>
       <c r="K3" s="18" t="n">
-        <v>0.0072</v>
+        <v>0</v>
       </c>
       <c r="L3" s="18" t="n">
-        <v>0.01395</v>
+        <v>0</v>
       </c>
       <c r="M3" s="18" t="n">
-        <v>0.00702</v>
+        <v>0</v>
       </c>
       <c r="N3" s="18" t="n">
-        <v>0.02826</v>
+        <v>0</v>
       </c>
       <c r="O3" s="18" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="18" t="n">
-        <v>0.01395</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="18" t="n">
-        <v>0.00693</v>
+        <v>0</v>
       </c>
       <c r="R3" s="18" t="n">
-        <v>0.02079</v>
+        <v>0</v>
       </c>
       <c r="S3" s="18" t="n">
-        <v>0.02808</v>
+        <v>0</v>
       </c>
       <c r="T3" s="18" t="n">
-        <v>0.01413</v>
+        <v>0</v>
       </c>
       <c r="U3" s="18" t="n">
-        <v>0.01413</v>
+        <v>0</v>
       </c>
       <c r="V3" s="18" t="n">
-        <v>0.05652</v>
+        <v>0</v>
       </c>
       <c r="W3" s="18" t="n">
-        <v>0.12807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3926,7 +4330,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -3941,450 +4345,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="18" t="n">
-        <v>0.0317</v>
+        <v>0</v>
       </c>
       <c r="I4" s="18" t="n">
-        <v>0.0083</v>
+        <v>1</v>
       </c>
       <c r="J4" s="18" t="n">
-        <v>0.0402</v>
+        <v>0.5882</v>
       </c>
       <c r="K4" s="18" t="n">
-        <v>0.0167</v>
+        <v>0</v>
       </c>
       <c r="L4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18" t="n">
         <v>1</v>
-      </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="18" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="S7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="U7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W7" s="18" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="18" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="Q8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="S8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="18" t="n">
-        <v>1.1765</v>
-      </c>
-      <c r="W8" s="18" t="n">
-        <v>2.6316</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="18" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="18" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="18" t="n">
-        <v>0.60003</v>
-      </c>
-      <c r="Q9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="18" t="n">
-        <v>0.60003</v>
-      </c>
-      <c r="S9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="18" t="n">
-        <v>1.05885</v>
-      </c>
-      <c r="W9" s="18" t="n">
-        <v>2.36844</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="18" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4492,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4557,7 +4563,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4628,7 +4634,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4640,49 +4646,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="19" t="n">
-        <v>0.5882</v>
+        <v>0</v>
       </c>
       <c r="K4" s="19" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5106,10 +5112,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="20" t="n">
-        <v>0</v>
+        <v>0.0189</v>
       </c>
       <c r="N2" s="20" t="n">
-        <v>0</v>
+        <v>0.0193</v>
       </c>
       <c r="O2" s="20" t="n">
         <v>0</v>
@@ -5118,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="Q2" s="20" t="n">
-        <v>0</v>
+        <v>0.0169</v>
       </c>
       <c r="R2" s="20" t="n">
-        <v>0</v>
+        <v>0.0175</v>
       </c>
       <c r="S2" s="20" t="n">
         <v>0</v>
@@ -5130,13 +5136,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="20" t="n">
-        <v>0</v>
+        <v>0.0159</v>
       </c>
       <c r="V2" s="20" t="n">
-        <v>0</v>
+        <v>0.0161</v>
       </c>
       <c r="W2" s="20" t="n">
-        <v>0</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="3">
@@ -5177,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="20" t="n">
-        <v>0</v>
+        <v>0.01701</v>
       </c>
       <c r="N3" s="20" t="n">
-        <v>0</v>
+        <v>0.01737</v>
       </c>
       <c r="O3" s="20" t="n">
         <v>0</v>
@@ -5189,10 +5195,10 @@
         <v>0</v>
       </c>
       <c r="Q3" s="20" t="n">
-        <v>0</v>
+        <v>0.01521</v>
       </c>
       <c r="R3" s="20" t="n">
-        <v>0</v>
+        <v>0.01575</v>
       </c>
       <c r="S3" s="20" t="n">
         <v>0</v>
@@ -5201,13 +5207,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="20" t="n">
-        <v>0</v>
+        <v>0.01431</v>
       </c>
       <c r="V3" s="20" t="n">
-        <v>0</v>
+        <v>0.01449</v>
       </c>
       <c r="W3" s="20" t="n">
-        <v>0</v>
+        <v>0.04914</v>
       </c>
     </row>
     <row r="4">
@@ -5236,49 +5242,171 @@
         <v>0</v>
       </c>
       <c r="I4" s="20" t="n">
-        <v>0</v>
+        <v>0.0159</v>
       </c>
       <c r="J4" s="20" t="n">
-        <v>0</v>
+        <v>0.0158</v>
       </c>
       <c r="K4" s="20" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="20" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="20" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5380,7 +5508,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5404,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="21" t="n">
-        <v>0.0189</v>
+        <v>0</v>
       </c>
       <c r="N2" s="21" t="n">
-        <v>0.0193</v>
+        <v>0</v>
       </c>
       <c r="O2" s="21" t="n">
         <v>0</v>
@@ -5416,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="Q2" s="21" t="n">
-        <v>0.0169</v>
+        <v>0</v>
       </c>
       <c r="R2" s="21" t="n">
-        <v>0.0175</v>
+        <v>0</v>
       </c>
       <c r="S2" s="21" t="n">
         <v>0</v>
@@ -5428,13 +5556,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="21" t="n">
-        <v>0.0159</v>
+        <v>0</v>
       </c>
       <c r="V2" s="21" t="n">
-        <v>0.0161</v>
+        <v>0</v>
       </c>
       <c r="W2" s="21" t="n">
-        <v>0.0546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5451,7 +5579,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5475,10 +5603,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="21" t="n">
-        <v>0.01701</v>
+        <v>0</v>
       </c>
       <c r="N3" s="21" t="n">
-        <v>0.01737</v>
+        <v>0</v>
       </c>
       <c r="O3" s="21" t="n">
         <v>0</v>
@@ -5487,10 +5615,10 @@
         <v>0</v>
       </c>
       <c r="Q3" s="21" t="n">
-        <v>0.01521</v>
+        <v>0</v>
       </c>
       <c r="R3" s="21" t="n">
-        <v>0.01575</v>
+        <v>0</v>
       </c>
       <c r="S3" s="21" t="n">
         <v>0</v>
@@ -5499,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="21" t="n">
-        <v>0.01431</v>
+        <v>0</v>
       </c>
       <c r="V3" s="21" t="n">
-        <v>0.01449</v>
+        <v>0</v>
       </c>
       <c r="W3" s="21" t="n">
-        <v>0.04914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5522,7 +5650,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5534,171 +5662,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="21" t="n">
-        <v>0.0159</v>
+        <v>0</v>
       </c>
       <c r="J4" s="21" t="n">
-        <v>0.0158</v>
+        <v>0</v>
       </c>
       <c r="K4" s="21" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7594,7 +7600,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="28" t="n">
-        <v>0</v>
+        <v>0.0909</v>
       </c>
       <c r="H2" s="28" t="n">
         <v>0</v>
@@ -7603,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="28" t="n">
-        <v>0</v>
+        <v>0.0971</v>
       </c>
       <c r="K2" s="28" t="n">
         <v>0</v>
@@ -7642,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="28" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="3">
@@ -7665,7 +7671,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="28" t="n">
-        <v>0</v>
+        <v>0.08181</v>
       </c>
       <c r="H3" s="28" t="n">
         <v>0</v>
@@ -7674,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="28" t="n">
-        <v>0</v>
+        <v>0.08739</v>
       </c>
       <c r="K3" s="28" t="n">
         <v>0</v>
@@ -7713,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="28" t="n">
-        <v>0</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="4">
@@ -7785,6 +7791,116 @@
       </c>
       <c r="W4" s="28" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="28" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -7892,7 +8008,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="29" t="n">
-        <v>0.0909</v>
+        <v>0.04</v>
       </c>
       <c r="H2" s="29" t="n">
         <v>0</v>
@@ -7901,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="29" t="n">
-        <v>0.0971</v>
+        <v>0.0389</v>
       </c>
       <c r="K2" s="29" t="n">
         <v>0</v>
@@ -7919,13 +8035,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="29" t="n">
-        <v>0</v>
+        <v>0.0333</v>
       </c>
       <c r="Q2" s="29" t="n">
-        <v>0</v>
+        <v>0.0333</v>
       </c>
       <c r="R2" s="29" t="n">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="S2" s="29" t="n">
         <v>0</v>
@@ -7934,13 +8050,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="29" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="V2" s="29" t="n">
-        <v>0</v>
+        <v>0.0319</v>
       </c>
       <c r="W2" s="29" t="n">
-        <v>0.099</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="3">
@@ -7963,7 +8079,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="29" t="n">
-        <v>0.08181</v>
+        <v>0.036</v>
       </c>
       <c r="H3" s="29" t="n">
         <v>0</v>
@@ -7972,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="29" t="n">
-        <v>0.08739</v>
+        <v>0.03501</v>
       </c>
       <c r="K3" s="29" t="n">
         <v>0</v>
@@ -7990,13 +8106,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="29" t="n">
-        <v>0</v>
+        <v>0.02997</v>
       </c>
       <c r="Q3" s="29" t="n">
-        <v>0</v>
+        <v>0.02997</v>
       </c>
       <c r="R3" s="29" t="n">
-        <v>0</v>
+        <v>0.0594</v>
       </c>
       <c r="S3" s="29" t="n">
         <v>0</v>
@@ -8005,13 +8121,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="29" t="n">
-        <v>0</v>
+        <v>0.02907</v>
       </c>
       <c r="V3" s="29" t="n">
-        <v>0</v>
+        <v>0.02871</v>
       </c>
       <c r="W3" s="29" t="n">
-        <v>0.0891</v>
+        <v>0.12456</v>
       </c>
     </row>
     <row r="4">
@@ -8096,7 +8212,7 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" t="s">
@@ -8104,26 +8220,36 @@
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="I5" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" s="29"/>
-      <c r="L5" s="29" t="n">
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29" t="n">
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
+      <c r="R5" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
+      <c r="T5" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
+      <c r="V5" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="W5" s="29" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -8137,7 +8263,7 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" t="s">
@@ -8598,7 +8724,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="30" t="n">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
       <c r="H2" s="30" t="n">
         <v>0</v>
@@ -8607,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="30" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="K2" s="30" t="n">
         <v>0</v>
@@ -8625,13 +8751,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="30" t="n">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="30" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="R2" s="30" t="n">
-        <v>0.2857</v>
+        <v>0</v>
       </c>
       <c r="S2" s="30" t="n">
         <v>0</v>
@@ -8640,13 +8766,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="30" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="V2" s="30" t="n">
-        <v>0.1754</v>
+        <v>0</v>
       </c>
       <c r="W2" s="30" t="n">
-        <v>0.5714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8669,7 +8795,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="30" t="n">
-        <v>0.12861</v>
+        <v>0</v>
       </c>
       <c r="H3" s="30" t="n">
         <v>0</v>
@@ -8678,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="30" t="n">
-        <v>0.1233</v>
+        <v>0</v>
       </c>
       <c r="K3" s="30" t="n">
         <v>0</v>
@@ -8696,13 +8822,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="30" t="n">
-        <v>0.12861</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="30" t="n">
-        <v>0.15003</v>
+        <v>0</v>
       </c>
       <c r="R3" s="30" t="n">
-        <v>0.25713</v>
+        <v>0</v>
       </c>
       <c r="S3" s="30" t="n">
         <v>0</v>
@@ -8711,204 +8837,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="30" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="V3" s="30" t="n">
-        <v>0.15786</v>
+        <v>0</v>
       </c>
       <c r="W3" s="30" t="n">
-        <v>0.51426</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="30" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10103,6 +10038,116 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -10401,116 +10446,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="35" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -10639,30 +10574,14 @@
       <c r="N2" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="36" t="n">
-        <v>0</v>
-      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
       <c r="W2" s="36" t="n">
         <v>0</v>
       </c>
@@ -10710,102 +10629,15 @@
       <c r="N3" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="36" t="n">
-        <v>0</v>
-      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
       <c r="W3" s="36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10907,7 +10739,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="37" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -10917,24 +10751,14 @@
       <c r="H2" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" s="37"/>
       <c r="J2" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
@@ -10960,7 +10784,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="37" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -10970,24 +10796,14 @@
       <c r="H3" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" s="37"/>
       <c r="J3" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
@@ -11098,7 +10914,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -11108,22 +10926,48 @@
       <c r="H2" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
+      <c r="K2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="38" t="n">
         <v>0</v>
       </c>
@@ -11141,7 +10985,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -11151,23 +10997,120 @@
       <c r="H3" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="I3" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
+      <c r="K3" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="W3" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11469,6 +11412,116 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="39" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -11568,7 +11621,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11639,7 +11692,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11710,7 +11763,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12065,116 +12118,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="40" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -12283,13 +12226,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="41" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I2" s="41" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J2" s="41" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2" s="41" t="n">
         <v>0</v>
@@ -12298,10 +12241,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="41" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="N2" s="41" t="n">
-        <v>0</v>
+        <v>0.2703</v>
       </c>
       <c r="O2" s="41" t="n">
         <v>0</v>
@@ -12328,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="41" t="n">
-        <v>0</v>
+        <v>0.7317</v>
       </c>
     </row>
     <row r="3">
@@ -12354,13 +12297,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="41" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="I3" s="41" t="n">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="J3" s="41" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="K3" s="41" t="n">
         <v>0</v>
@@ -12369,10 +12312,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="41" t="n">
-        <v>0</v>
+        <v>0.29997</v>
       </c>
       <c r="N3" s="41" t="n">
-        <v>0</v>
+        <v>0.24327</v>
       </c>
       <c r="O3" s="41" t="n">
         <v>0</v>
@@ -12399,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="41" t="n">
-        <v>0</v>
+        <v>0.65853</v>
       </c>
     </row>
     <row r="4">
@@ -12428,10 +12371,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="41" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="J4" s="41" t="n">
-        <v>0</v>
+        <v>0.2703</v>
       </c>
       <c r="K4" s="41" t="n">
         <v>0</v>
@@ -12879,13 +12822,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="43" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="43" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J2" s="43" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K2" s="43" t="n">
         <v>0</v>
@@ -12894,10 +12837,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="43" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="N2" s="43" t="n">
-        <v>0.2703</v>
+        <v>0</v>
       </c>
       <c r="O2" s="43" t="n">
         <v>0</v>
@@ -12924,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="43" t="n">
-        <v>0.7317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -12950,13 +12893,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="43" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I3" s="43" t="n">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="J3" s="43" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="K3" s="43" t="n">
         <v>0</v>
@@ -12965,10 +12908,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="43" t="n">
-        <v>0.29997</v>
+        <v>0</v>
       </c>
       <c r="N3" s="43" t="n">
-        <v>0.24327</v>
+        <v>0</v>
       </c>
       <c r="O3" s="43" t="n">
         <v>0</v>
@@ -12995,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="43" t="n">
-        <v>0.65853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -13024,10 +12967,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="43" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="J4" s="43" t="n">
-        <v>0.2703</v>
+        <v>0</v>
       </c>
       <c r="K4" s="43" t="n">
         <v>0</v>
@@ -13472,7 +13415,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="45" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="H2" s="45" t="n">
         <v>0</v>
@@ -13481,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="45" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="K2" s="45" t="n">
         <v>0</v>
@@ -13520,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="45" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="3">
@@ -13543,7 +13486,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="45" t="n">
-        <v>0</v>
+        <v>0.29997</v>
       </c>
       <c r="H3" s="45" t="n">
         <v>0</v>
@@ -13552,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="45" t="n">
-        <v>0</v>
+        <v>0.29997</v>
       </c>
       <c r="K3" s="45" t="n">
         <v>0</v>
@@ -13591,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="45" t="n">
-        <v>0</v>
+        <v>0.29997</v>
       </c>
     </row>
     <row r="4">
@@ -14068,7 +14011,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="47" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="H2" s="47" t="n">
         <v>0</v>
@@ -14077,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="47" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="K2" s="47" t="n">
         <v>0</v>
@@ -14116,7 +14059,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="47" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -14139,7 +14082,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="47" t="n">
-        <v>0.29997</v>
+        <v>0</v>
       </c>
       <c r="H3" s="47" t="n">
         <v>0</v>
@@ -14148,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="47" t="n">
-        <v>0.29997</v>
+        <v>0</v>
       </c>
       <c r="K3" s="47" t="n">
         <v>0</v>
@@ -14187,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="47" t="n">
-        <v>0.29997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -15259,12 +15202,8 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="50" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="50" t="n">
         <v>0</v>
       </c>
@@ -15330,12 +15269,8 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="50" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="50" t="n">
         <v>0</v>
       </c>
@@ -15557,21 +15492,11 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="51" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="51" t="n">
         <v>0</v>
       </c>
@@ -15628,21 +15553,11 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="51" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="51" t="n">
         <v>0</v>
       </c>
@@ -15855,30 +15770,14 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="52" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="52" t="n">
         <v>0</v>
       </c>
@@ -15926,30 +15825,14 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="52" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="52" t="n">
         <v>0</v>
       </c>
@@ -16155,30 +16038,14 @@
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
-      <c r="I2" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
       <c r="Q2" s="53" t="n">
         <v>0</v>
       </c>
@@ -16222,30 +16089,14 @@
       </c>
       <c r="G3" s="53"/>
       <c r="H3" s="53"/>
-      <c r="I3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
       <c r="Q3" s="53" t="n">
         <v>0</v>
       </c>
@@ -16448,33 +16299,19 @@
       <c r="I2" s="54"/>
       <c r="J2" s="54"/>
       <c r="K2" s="54"/>
-      <c r="L2" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="54" t="n">
-        <v>0</v>
-      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
       <c r="Q2" s="54" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="54" t="n">
-        <v>0</v>
-      </c>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
       <c r="U2" s="54" t="n">
         <v>0</v>
       </c>
@@ -16509,33 +16346,19 @@
       <c r="I3" s="54"/>
       <c r="J3" s="54"/>
       <c r="K3" s="54"/>
-      <c r="L3" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="54" t="n">
-        <v>0</v>
-      </c>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="Q3" s="54" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="54" t="n">
-        <v>0</v>
-      </c>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
       <c r="U3" s="54" t="n">
         <v>0</v>
       </c>
@@ -16727,18 +16550,10 @@
       <c r="J2" s="55"/>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
-      <c r="M2" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="55" t="n">
-        <v>0</v>
-      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
       <c r="Q2" s="55" t="n">
         <v>0</v>
       </c>
@@ -16786,18 +16601,10 @@
       <c r="J3" s="55"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
-      <c r="M3" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="55" t="n">
-        <v>0</v>
-      </c>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
       <c r="Q3" s="55" t="n">
         <v>0</v>
       </c>
@@ -16993,16 +16800,32 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
+        <v>29</v>
+      </c>
+      <c r="G2" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="56" t="n">
+        <v>0</v>
+      </c>
       <c r="O2" s="56" t="n">
         <v>0</v>
       </c>
@@ -17028,132 +16851,6 @@
         <v>0</v>
       </c>
       <c r="W2" s="56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17259,26 +16956,50 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+        <v>29</v>
+      </c>
+      <c r="G2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="57" t="n">
+        <v>0</v>
+      </c>
       <c r="Q2" s="57" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="S2" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="57" t="n">
+        <v>0</v>
+      </c>
       <c r="U2" s="57" t="n">
         <v>0</v>
       </c>
@@ -17286,124 +17007,6 @@
         <v>0</v>
       </c>
       <c r="W2" s="57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17509,18 +17112,38 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="G2" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="Q2" s="58" t="n">
         <v>0</v>
       </c>
@@ -17540,128 +17163,6 @@
         <v>0</v>
       </c>
       <c r="W2" s="58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17769,8 +17270,12 @@
       <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="G2" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="59" t="n">
+        <v>0</v>
+      </c>
       <c r="I2" s="59" t="n">
         <v>0</v>
       </c>
@@ -18273,6 +17778,158 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -19113,52 +18770,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="9" t="n">
-        <v>0</v>
+        <v>0.5882</v>
       </c>
       <c r="K4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_Corp Information Technology.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Information Technology.xlsx
@@ -3661,7 +3661,7 @@
         <v>0.0167</v>
       </c>
       <c r="L4" s="17" t="n">
-        <v>0</v>
+        <v>0.0256</v>
       </c>
       <c r="M4" s="17" t="n">
         <v>0</v>
@@ -3845,9 +3845,7 @@
       <c r="K7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="17" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="L7" s="17"/>
       <c r="M7" s="17" t="n">
         <v>0.8</v>
       </c>
@@ -3896,7 +3894,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3967,7 +3965,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4038,7 +4036,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="17" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4357,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="18" t="n">
         <v>0.0833333333333333</v>
@@ -5251,40 +5249,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="20" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0159</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -11784,7 +11782,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0.0833333333333333</v>
@@ -18782,7 +18780,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
         <v>0.0833333333333333</v>

--- a/outputs/SORs/SOR Testing_Corp Information Technology.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Information Technology.xlsx
@@ -3498,7 +3498,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="n">
-        <v>0</v>
+        <v>0.082</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3569,7 +3569,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="17" t="n">
-        <v>0</v>
+        <v>0.082</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3640,7 +3640,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="17" t="n">
-        <v>0</v>
+        <v>0.082</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3664,37 +3664,37 @@
         <v>0.0256</v>
       </c>
       <c r="M4" s="17" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="N4" s="17" t="n">
-        <v>0</v>
+        <v>0.0492</v>
       </c>
       <c r="O4" s="17" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="P4" s="17" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="Q4" s="17" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="R4" s="17" t="n">
-        <v>0</v>
+        <v>0.0492</v>
       </c>
       <c r="S4" s="17" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="T4" s="17" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="U4" s="17" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="V4" s="17" t="n">
-        <v>0</v>
+        <v>0.0492</v>
       </c>
       <c r="W4" s="17" t="n">
-        <v>0</v>
+        <v>0.1968</v>
       </c>
     </row>
     <row r="5">
@@ -3894,7 +3894,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3965,7 +3965,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4036,7 +4036,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="17" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4192,7 +4192,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4263,7 +4263,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4334,7 +4334,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4358,37 +4358,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>1</v>
+        <v>1.7143</v>
       </c>
     </row>
   </sheetData>
@@ -5086,7 +5086,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0</v>
+        <v>0.0315</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5157,7 +5157,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0</v>
+        <v>0.0315</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5228,7 +5228,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0</v>
+        <v>0.0315</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5252,37 +5252,37 @@
         <v>0.0159</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0</v>
+        <v>0.0189</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0</v>
+        <v>0.0189</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0</v>
+        <v>0.0189</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0</v>
+        <v>0.0756</v>
       </c>
     </row>
     <row r="5">
@@ -8715,9 +8715,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="30" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="30"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -8786,9 +8784,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="30" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -10542,9 +10538,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="36" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="36"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -10597,9 +10591,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="36" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="36"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -10737,9 +10729,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="37"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -10782,9 +10772,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="37"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -11619,7 +11607,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11690,7 +11678,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11761,7 +11749,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11785,37 +11773,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -12215,7 +12203,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="41" t="n">
-        <v>0</v>
+        <v>0.2941</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12286,7 +12274,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="41" t="n">
-        <v>0</v>
+        <v>0.2941</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12357,7 +12345,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="41" t="n">
-        <v>0</v>
+        <v>0.2941</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12381,37 +12369,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="41" t="n">
-        <v>0</v>
+        <v>0.0588166666666667</v>
       </c>
       <c r="N4" s="41" t="n">
-        <v>0</v>
+        <v>0.17645</v>
       </c>
       <c r="O4" s="41" t="n">
-        <v>0</v>
+        <v>0.0588166666666667</v>
       </c>
       <c r="P4" s="41" t="n">
-        <v>0</v>
+        <v>0.0588166666666667</v>
       </c>
       <c r="Q4" s="41" t="n">
-        <v>0</v>
+        <v>0.0588166666666667</v>
       </c>
       <c r="R4" s="41" t="n">
-        <v>0</v>
+        <v>0.17645</v>
       </c>
       <c r="S4" s="41" t="n">
-        <v>0</v>
+        <v>0.0588166666666667</v>
       </c>
       <c r="T4" s="41" t="n">
-        <v>0</v>
+        <v>0.0588166666666667</v>
       </c>
       <c r="U4" s="41" t="n">
-        <v>0</v>
+        <v>0.0588166666666667</v>
       </c>
       <c r="V4" s="41" t="n">
-        <v>0</v>
+        <v>0.17645</v>
       </c>
       <c r="W4" s="41" t="n">
-        <v>0</v>
+        <v>0.7058</v>
       </c>
     </row>
   </sheetData>
@@ -18617,7 +18605,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -18688,7 +18676,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -18759,7 +18747,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -18783,37 +18771,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>1</v>
+        <v>1.7143</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_Corp Information Technology.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Information Technology.xlsx
@@ -3498,7 +3498,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="n">
-        <v>0.082</v>
+        <v>0.0811</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3569,7 +3569,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="17" t="n">
-        <v>0.082</v>
+        <v>0.0811</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3640,7 +3640,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="17" t="n">
-        <v>0.082</v>
+        <v>0.0811</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3649,52 +3649,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="17" t="n">
-        <v>0.0317</v>
+        <v>0.0312</v>
       </c>
       <c r="I4" s="17" t="n">
-        <v>0.0083</v>
+        <v>0.0082</v>
       </c>
       <c r="J4" s="17" t="n">
-        <v>0.0402</v>
+        <v>0.0396</v>
       </c>
       <c r="K4" s="17" t="n">
-        <v>0.0167</v>
+        <v>0.0164</v>
       </c>
       <c r="L4" s="17" t="n">
-        <v>0.0256</v>
+        <v>0.0252</v>
       </c>
       <c r="M4" s="17" t="n">
-        <v>0.0164</v>
+        <v>0</v>
       </c>
       <c r="N4" s="17" t="n">
-        <v>0.0492</v>
+        <v>0.0416</v>
       </c>
       <c r="O4" s="17" t="n">
-        <v>0.0164</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="P4" s="17" t="n">
-        <v>0.0164</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="Q4" s="17" t="n">
-        <v>0.0164</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="R4" s="17" t="n">
-        <v>0.0492</v>
+        <v>0.04055</v>
       </c>
       <c r="S4" s="17" t="n">
-        <v>0.0164</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="T4" s="17" t="n">
-        <v>0.0164</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="U4" s="17" t="n">
-        <v>0.0164</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="V4" s="17" t="n">
-        <v>0.0492</v>
+        <v>0.04055</v>
       </c>
       <c r="W4" s="17" t="n">
-        <v>0.1968</v>
+        <v>0.1622</v>
       </c>
     </row>
     <row r="5">
@@ -3711,7 +3711,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="17" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3758,7 +3758,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="17" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3829,7 +3829,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="17" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -3847,37 +3847,37 @@
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N7" s="17" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O7" s="17" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="P7" s="17" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="Q7" s="17" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="R7" s="17" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="S7" s="17" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="T7" s="17" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="U7" s="17" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="V7" s="17" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="W7" s="17" t="n">
-        <v>0.8</v>
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="8">
@@ -4192,7 +4192,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4263,7 +4263,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4334,7 +4334,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4358,37 +4358,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0.142858333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0.428575</v>
+        <v>0</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0.428575</v>
+        <v>0.3846</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0.428575</v>
+        <v>0.3846</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>1.7143</v>
+        <v>1.5384</v>
       </c>
     </row>
   </sheetData>
@@ -5086,7 +5086,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0.0315</v>
+        <v>0.0309</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5157,7 +5157,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0.0315</v>
+        <v>0.0309</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5228,7 +5228,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0.0315</v>
+        <v>0.0309</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5240,49 +5240,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="20" t="n">
-        <v>0.0159</v>
+        <v>0.0156</v>
       </c>
       <c r="J4" s="20" t="n">
-        <v>0.0158</v>
+        <v>0.0156</v>
       </c>
       <c r="K4" s="20" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="20" t="n">
-        <v>0.0159</v>
+        <v>0.0156</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>0.0063</v>
+        <v>0</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0.0189</v>
+        <v>0.0154</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0.0063</v>
+        <v>0.00515</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0.0063</v>
+        <v>0.00515</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0.0063</v>
+        <v>0.00515</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0.0189</v>
+        <v>0.01545</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0.0063</v>
+        <v>0.00515</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0.0063</v>
+        <v>0.00515</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0.0063</v>
+        <v>0.00515</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0.0189</v>
+        <v>0.01545</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0.0756</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="5">
@@ -6995,9 +6995,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="26"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -7066,9 +7064,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="26"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -7121,77 +7117,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11607,7 +11532,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.625</v>
+        <v>0.6667</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11678,7 +11603,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.625</v>
+        <v>0.6667</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11749,7 +11674,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.625</v>
+        <v>0.6667</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11773,37 +11698,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.375</v>
+        <v>0.33335</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.375</v>
+        <v>0.33335</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.5</v>
+        <v>1.3334</v>
       </c>
     </row>
   </sheetData>
@@ -12203,7 +12128,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="41" t="n">
-        <v>0.2941</v>
+        <v>0.303</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12274,7 +12199,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="41" t="n">
-        <v>0.2941</v>
+        <v>0.303</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12345,7 +12270,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="41" t="n">
-        <v>0.2941</v>
+        <v>0.303</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12369,37 +12294,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="41" t="n">
-        <v>0.0588166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="41" t="n">
-        <v>0.17645</v>
+        <v>0</v>
       </c>
       <c r="O4" s="41" t="n">
-        <v>0.0588166666666667</v>
+        <v>0.0505</v>
       </c>
       <c r="P4" s="41" t="n">
-        <v>0.0588166666666667</v>
+        <v>0.0505</v>
       </c>
       <c r="Q4" s="41" t="n">
-        <v>0.0588166666666667</v>
+        <v>0.0505</v>
       </c>
       <c r="R4" s="41" t="n">
-        <v>0.17645</v>
+        <v>0.1515</v>
       </c>
       <c r="S4" s="41" t="n">
-        <v>0.0588166666666667</v>
+        <v>0.0505</v>
       </c>
       <c r="T4" s="41" t="n">
-        <v>0.0588166666666667</v>
+        <v>0.0505</v>
       </c>
       <c r="U4" s="41" t="n">
-        <v>0.0588166666666667</v>
+        <v>0.0505</v>
       </c>
       <c r="V4" s="41" t="n">
-        <v>0.17645</v>
+        <v>0.1515</v>
       </c>
       <c r="W4" s="41" t="n">
-        <v>0.7058</v>
+        <v>0.606</v>
       </c>
     </row>
   </sheetData>
@@ -18605,7 +18530,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -18676,7 +18601,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -18747,7 +18672,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -18771,37 +18696,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.428575</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.428575</v>
+        <v>0.3846</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.428575</v>
+        <v>0.3846</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>1.7143</v>
+        <v>1.5384</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_Corp Information Technology.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Information Technology.xlsx
@@ -3498,7 +3498,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="n">
-        <v>0.0811</v>
+        <v>0.0815</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3569,7 +3569,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="17" t="n">
-        <v>0.0811</v>
+        <v>0.0815</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3640,7 +3640,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="17" t="n">
-        <v>0.0811</v>
+        <v>0.0815</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3670,31 +3670,31 @@
         <v>0.0416</v>
       </c>
       <c r="O4" s="17" t="n">
-        <v>0.0135166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="17" t="n">
-        <v>0.0135166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="17" t="n">
-        <v>0.0135166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="17" t="n">
-        <v>0.04055</v>
+        <v>0</v>
       </c>
       <c r="S4" s="17" t="n">
-        <v>0.0135166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="17" t="n">
-        <v>0.0135166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="17" t="n">
-        <v>0.0135166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="17" t="n">
-        <v>0.04055</v>
+        <v>0</v>
       </c>
       <c r="W4" s="17" t="n">
-        <v>0.1622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3852,9 +3852,7 @@
       <c r="N7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="17" t="n">
-        <v>0.857142857142857</v>
-      </c>
+      <c r="O7" s="17"/>
       <c r="P7" s="17" t="n">
         <v>0.857142857142857</v>
       </c>
@@ -4364,31 +4362,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0.1282</v>
+        <v>0</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0.3846</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0.3846</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>1.5384</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5086,7 +5084,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0.0309</v>
+        <v>0.0303</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5157,7 +5155,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0.0309</v>
+        <v>0.0303</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5228,7 +5226,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0.0309</v>
+        <v>0.0303</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5240,49 +5238,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="20" t="n">
-        <v>0.0156</v>
+        <v>0.0154</v>
       </c>
       <c r="J4" s="20" t="n">
-        <v>0.0156</v>
+        <v>0.0153</v>
       </c>
       <c r="K4" s="20" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="20" t="n">
-        <v>0.0156</v>
+        <v>0.0154</v>
       </c>
       <c r="M4" s="20" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0.0154</v>
+        <v>0.0152</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0.00515</v>
+        <v>0</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0.00515</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0.00515</v>
+        <v>0</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0.01545</v>
+        <v>0</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0.00515</v>
+        <v>0</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0.00515</v>
+        <v>0</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0.00515</v>
+        <v>0</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0.01545</v>
+        <v>0</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0.0618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -11532,7 +11530,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11603,7 +11601,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11674,7 +11672,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11704,31 +11702,31 @@
         <v>1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.111116666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.33335</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.33335</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.3334</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12300,31 +12298,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="41" t="n">
-        <v>0.0505</v>
+        <v>0</v>
       </c>
       <c r="P4" s="41" t="n">
-        <v>0.0505</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="41" t="n">
-        <v>0.0505</v>
+        <v>0</v>
       </c>
       <c r="R4" s="41" t="n">
-        <v>0.1515</v>
+        <v>0</v>
       </c>
       <c r="S4" s="41" t="n">
-        <v>0.0505</v>
+        <v>0</v>
       </c>
       <c r="T4" s="41" t="n">
-        <v>0.0505</v>
+        <v>0</v>
       </c>
       <c r="U4" s="41" t="n">
-        <v>0.0505</v>
+        <v>0</v>
       </c>
       <c r="V4" s="41" t="n">
-        <v>0.1515</v>
+        <v>0</v>
       </c>
       <c r="W4" s="41" t="n">
-        <v>0.606</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18702,31 +18700,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.1282</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.3846</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.3846</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>1.5384</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
